--- a/QA/Tests/CRUD/Update/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/CRUD/Update/_Test_Suite_Statistics.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
